--- a/tut04/output_by_subject/EE518.xlsx
+++ b/tut04/output_by_subject/EE518.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,8 +461,205 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORE
-</t>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2011EE31</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>EE518</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2011EE24</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>EE518</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2011EE32</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>EE518</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2011EE26</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>EE518</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2011EE27</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>EE518</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2011EE28</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>EE518</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2011EE22</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>EE518</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2011EE20</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>EE518</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2011EE21</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>EE518</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>CORE</t>
         </is>
       </c>
     </row>
